--- a/1 LCOA/data.xlsx
+++ b/1 LCOA/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\summer\Desktop\新建文件夹 (2)\1 LCOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\1 LCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B00DD-0EB4-40A9-B397-3D46BB2467B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95191D3-1D5C-492E-9D73-AFFF131FAC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7560" yWindow="610" windowWidth="11100" windowHeight="10200" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="50" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PV" sheetId="21" r:id="rId5"/>
     <sheet name="Wind" sheetId="68" r:id="rId6"/>
     <sheet name="Cost" sheetId="65" r:id="rId7"/>
-    <sheet name="Cost(1)" sheetId="74" r:id="rId8"/>
+    <sheet name="Cost(1)" sheetId="74" state="hidden" r:id="rId8"/>
     <sheet name="Exchange Rate" sheetId="2" r:id="rId9"/>
     <sheet name="Province" sheetId="37" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="76" state="hidden" r:id="rId11"/>
@@ -2043,8 +2043,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source:
+1) https://news.bjx.com.cn/html/20181015/933737-3.shtml
+2) http://meeting.baiinfo.com/dianmei/
+3) https://fgw.beijing.gov.cn/fgwzwgk/zcgk/bwqtwj/201912/t20191226_1506664.htm(National Development and Reform Commission websites of various cities, taking Beijing as an example)
+4) He et al., 2016, Renewable Energy, Where, when and how much solar is available? A provincial-scale solar resource assessment for China
+5) Li et al., 2022, Sustainable Energy &amp; Fuels, Achieving a low-carbon future through the energy–chemical nexus in China; He et al., Rapid cost decrease of renewables and storage accelerates the decarbonization of China’s power system
+6) Fan et al., 2022, Energy, A levelized cost of hydrogen (LCOH) comparison of coal-to-hydrogen with CCS and water electrolysis powered by renewable energy in China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>Coal_feedback</t>
+      <t>Natural gas</t>
     </r>
     <r>
       <rPr>
@@ -2061,7 +2079,7 @@
   </si>
   <si>
     <r>
-      <t>Natural gas</t>
+      <t>PV</t>
     </r>
     <r>
       <rPr>
@@ -2078,7 +2096,7 @@
   </si>
   <si>
     <r>
-      <t>PV</t>
+      <t>Wind</t>
     </r>
     <r>
       <rPr>
@@ -2095,7 +2113,7 @@
   </si>
   <si>
     <r>
-      <t>Wind</t>
+      <t>CCS</t>
     </r>
     <r>
       <rPr>
@@ -2108,37 +2126,6 @@
       </rPr>
       <t>6)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CCS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source:
-1) https://news.bjx.com.cn/html/20181015/933737-3.shtml
-2) http://meeting.baiinfo.com/dianmei/
-3) https://fgw.beijing.gov.cn/fgwzwgk/zcgk/bwqtwj/201912/t20191226_1506664.htm(National Development and Reform Commission websites of various cities, taking Beijing as an example)
-4) He et al., 2016, Renewable Energy, Where, when and how much solar is available? A provincial-scale solar resource assessment for China
-5) Li et al., 2022, Sustainable Energy &amp; Fuels, Achieving a low-carbon future through the energy–chemical nexus in China; He et al., Rapid cost decrease of renewables and storage accelerates the decarbonization of China’s power system
-6) Fan et al., 2022, Energy, A levelized cost of hydrogen (LCOH) comparison of coal-to-hydrogen with CCS and water electrolysis powered by renewable energy in China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2431,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2584,6 +2571,9 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2621,32 +2611,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2936,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DC5FBB-3303-4F8E-8A54-F7FBBDCDA850}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -3589,11 +3553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6D2A5-EE2E-4A55-8907-03679660A525}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3605,8 +3569,8 @@
     <col min="5" max="5" width="19.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="19.58203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20" style="84" customWidth="1"/>
-    <col min="9" max="9" width="28.9140625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="20" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.9140625" style="10" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
@@ -3620,25 +3584,25 @@
         <v>381</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="80" t="s">
         <v>386</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>284</v>
@@ -3655,10 +3619,10 @@
       <c r="G3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="44" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3684,10 +3648,10 @@
       <c r="G4" s="46">
         <v>0.1734</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="46">
         <v>0.23202286817388601</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3713,10 +3677,10 @@
       <c r="G5" s="46">
         <v>0.1865</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="46">
         <v>0.18024513338138787</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3742,10 +3706,10 @@
       <c r="G6" s="46">
         <v>0.15140000000000001</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="46">
         <v>0.18264840182647984</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3771,10 +3735,10 @@
       <c r="G7" s="46">
         <v>0.19309999999999999</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="46">
         <v>0.27397260273972501</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="45">
         <v>500</v>
       </c>
     </row>
@@ -3800,10 +3764,10 @@
       <c r="G8" s="46">
         <v>0.21429999999999999</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="46">
         <v>0.25288682780187899</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3829,10 +3793,10 @@
       <c r="G9" s="46">
         <v>0.192</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="46">
         <v>0.20145044319097441</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="45">
         <v>500</v>
       </c>
     </row>
@@ -3858,10 +3822,10 @@
       <c r="G10" s="46">
         <v>0.18410000000000001</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="46">
         <v>0.23050579557428749</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="45">
         <v>500</v>
       </c>
     </row>
@@ -3887,10 +3851,10 @@
       <c r="G11" s="46">
         <v>0.1862</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="46">
         <v>0.20346842690514999</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3916,10 +3880,10 @@
       <c r="G12" s="46">
         <v>0.216</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="46">
         <v>0.16787536932580688</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3945,10 +3909,10 @@
       <c r="G13" s="46">
         <v>0.18770000000000001</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="46">
         <v>0.24497011118442411</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="45">
         <v>100</v>
       </c>
     </row>
@@ -3974,10 +3938,10 @@
       <c r="G14" s="46">
         <v>0.17269999999999999</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="46">
         <v>0.24969074998854579</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4003,10 +3967,10 @@
       <c r="G15" s="46">
         <v>0.17319999999999999</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="46">
         <v>0.13903524177496748</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4032,10 +3996,10 @@
       <c r="G16" s="46">
         <v>0.16819999999999999</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="46">
         <v>0.22072314420118838</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4061,10 +4025,10 @@
       <c r="G17" s="46">
         <v>0.16420000000000001</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="46">
         <v>0.1968193985199175</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4090,10 +4054,10 @@
       <c r="G18" s="46">
         <v>0.2031</v>
       </c>
-      <c r="H18" s="82">
+      <c r="H18" s="46">
         <v>0.28027521402617483</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4119,10 +4083,10 @@
       <c r="G19" s="46">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="46">
         <v>0.2283105022831047</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4148,10 +4112,10 @@
       <c r="G20" s="46">
         <v>0.1754</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="46">
         <v>0.20801623541349465</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4177,10 +4141,10 @@
       <c r="G21" s="46">
         <v>0.1784</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="46">
         <v>0.25029760318390937</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4206,10 +4170,10 @@
       <c r="G22" s="46">
         <v>0.18140000000000001</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H22" s="46">
         <v>0.24991149592881232</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4235,10 +4199,10 @@
       <c r="G23" s="46">
         <v>0.214</v>
       </c>
-      <c r="H23" s="82">
+      <c r="H23" s="46">
         <v>0.21611587604839888</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4264,10 +4228,10 @@
       <c r="G24" s="46">
         <v>0.26029999999999998</v>
       </c>
-      <c r="H24" s="82">
+      <c r="H24" s="46">
         <v>0.18909090000000001</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4293,10 +4257,10 @@
       <c r="G25" s="46">
         <v>0.1908</v>
       </c>
-      <c r="H25" s="82">
+      <c r="H25" s="46">
         <v>0.20745250577822816</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4322,10 +4286,10 @@
       <c r="G26" s="46">
         <v>0.1784</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="46">
         <v>0.21615784902021701</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4351,10 +4315,10 @@
       <c r="G27" s="46">
         <v>0.16819999999999999</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="46">
         <v>0.2894076789504102</v>
       </c>
-      <c r="I27" s="83">
+      <c r="I27" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4380,10 +4344,10 @@
       <c r="G28" s="46">
         <v>0.19700000000000001</v>
       </c>
-      <c r="H28" s="82">
+      <c r="H28" s="46">
         <v>0.23465854117688231</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4409,10 +4373,10 @@
       <c r="G29" s="46">
         <v>0.19239999999999999</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="46">
         <v>0.24816358943815653</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4438,10 +4402,10 @@
       <c r="G30" s="46">
         <v>0.1797</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="46">
         <v>0.17562346329469233</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4467,10 +4431,10 @@
       <c r="G31" s="46">
         <v>0.1928</v>
       </c>
-      <c r="H31" s="82">
+      <c r="H31" s="46">
         <v>0.27686065334122478</v>
       </c>
-      <c r="I31" s="83">
+      <c r="I31" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4496,10 +4460,10 @@
       <c r="G32" s="46">
         <v>0.2394</v>
       </c>
-      <c r="H32" s="82">
+      <c r="H32" s="46">
         <v>0.29304731914984272</v>
       </c>
-      <c r="I32" s="83">
+      <c r="I32" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4525,10 +4489,10 @@
       <c r="G33" s="46">
         <v>0.1764</v>
       </c>
-      <c r="H33" s="82">
+      <c r="H33" s="46">
         <v>0.23910897198568248</v>
       </c>
-      <c r="I33" s="83">
+      <c r="I33" s="45">
         <v>100</v>
       </c>
     </row>
@@ -4559,27 +4523,27 @@
         <f t="shared" si="0"/>
         <v>0.18878999999999999</v>
       </c>
-      <c r="H34" s="82">
+      <c r="H34" s="46">
         <f>AVERAGE(H4:H33)</f>
         <v>0.2259604304535951</v>
       </c>
-      <c r="I34" s="83">
+      <c r="I34" s="45">
         <f>AVERAGE(I4:I33)</f>
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
+      <c r="A37" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I37" xr:uid="{ACD6D2A5-EE2E-4A55-8907-03679660A525}">
@@ -4880,14 +4844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -6488,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F525E76-E2FE-4B37-94D5-E3F167FF822A}">
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6552,10 +6516,10 @@
         <v>47</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="72">
+      <c r="F3" s="73">
         <v>1.6</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -6570,14 +6534,14 @@
         <v>90</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="74">
+      <c r="F4" s="75">
         <v>2.5</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75">
         <v>3.2</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -6664,10 +6628,10 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -6680,10 +6644,10 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -7300,10 +7264,10 @@
       <c r="C53" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="I53" s="71"/>
+      <c r="I53" s="72"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C54" s="13" t="s">
@@ -8044,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF3D424-23C3-401A-A40F-837C5207AA37}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
@@ -8919,7 +8883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368B972-5488-44D2-A179-452E21715DD5}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -9620,7 +9584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEDB3B2-4486-48B4-AD63-655418469074}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -10535,7 +10499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E41B4-9A59-4546-BA52-2A3B67B08096}">
   <dimension ref="A2:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -11416,7 +11380,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11431,641 +11395,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="40">
         <v>2018</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="40">
         <v>2020</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="40">
         <v>2025</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="40">
         <v>2030</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="40">
         <v>2035</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="40">
         <v>2040</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="40">
         <v>2045</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="40">
         <v>2050</v>
       </c>
-      <c r="M2" s="75">
+      <c r="M2" s="40">
         <v>2055</v>
       </c>
-      <c r="N2" s="75">
+      <c r="N2" s="40">
         <v>2060</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="23">
         <v>4200</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="23">
         <v>4000</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="23">
         <v>3500</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="23">
         <v>3000</v>
       </c>
-      <c r="I3" s="77">
+      <c r="I3" s="23">
         <v>2750</v>
       </c>
-      <c r="J3" s="77">
+      <c r="J3" s="23">
         <v>2500</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="23">
         <v>2350</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="23">
         <v>2200</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="23">
         <v>2100</v>
       </c>
-      <c r="N3" s="77">
+      <c r="N3" s="23">
         <v>2000</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E5" si="0">(F4-G4)*2/5+F4</f>
         <v>4793.07</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:N4" si="1">(F5+F3)/2</f>
         <v>4535.75</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="23">
         <f t="shared" si="1"/>
         <v>3892.4500000000003</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="23">
         <f t="shared" si="1"/>
         <v>3345.75</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="23">
         <f t="shared" si="1"/>
         <v>2986.15</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="23">
         <f t="shared" si="1"/>
         <v>2719.7</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="23">
         <f t="shared" si="1"/>
         <v>2561.9</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="23">
         <f t="shared" si="1"/>
         <v>2435.15</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="23">
         <f t="shared" si="1"/>
         <v>2354.1000000000004</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="23">
         <f t="shared" si="1"/>
         <v>2293.75</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>5386.1399999999994</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="23">
         <v>5071.5</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="23">
         <v>4284.9000000000005</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="23">
         <v>3691.5</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="23">
         <v>3222.3</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="23">
         <v>2939.4</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="23">
         <v>2773.8</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="23">
         <v>2670.3</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="23">
         <v>2608.2000000000003</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="23">
         <v>2587.5</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="23">
         <f t="shared" ref="E6:E8" si="2">(F6-G6)*2/5+F6</f>
         <v>6499.8</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="23">
         <f>930*6.9</f>
         <v>6417</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="23">
         <f>(F6+H6)/2</f>
         <v>6210</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="23">
         <f>870*6.9</f>
         <v>6003</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="23">
         <f>H6+(L6-H6)/20*5</f>
         <v>5882.25</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="23">
         <f>H6+(L6-H6)/20*10</f>
         <v>5761.5</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="23">
         <f>H6+(L6-H6)/20*15</f>
         <v>5640.75</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="23">
         <f>800*6.9</f>
         <v>5520</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="23">
         <f>H6+(L6-H6)/20*25</f>
         <v>5399.25</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="23">
         <f>H6+(L6-H6)/20*30</f>
         <v>5278.5</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="23" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="23">
         <f t="shared" si="2"/>
         <v>6819.9</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="23">
         <f>(F6+F8)/2</f>
         <v>6708.5</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="23">
         <f>(G6+G8)/2</f>
         <v>6430</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="23">
         <f t="shared" ref="H7:N7" si="3">(H6+H8)/2</f>
         <v>6151.5</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
         <v>5978.625</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="23">
         <f t="shared" si="3"/>
         <v>5805.75</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="23">
         <f t="shared" si="3"/>
         <v>5657.875</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="23">
         <f t="shared" si="3"/>
         <v>5510</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="23">
         <f t="shared" si="3"/>
         <v>5399.625</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="23">
         <f t="shared" si="3"/>
         <v>5289.25</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="23">
         <f t="shared" si="2"/>
         <v>7140</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="23">
         <v>7000</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="23">
         <f>(F8+H8)/2</f>
         <v>6650</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="23">
         <v>6300</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="23">
         <f>(H8+J8)/2</f>
         <v>6075</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="23">
         <v>5850</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="23">
         <f>(J8+L8)/2</f>
         <v>5675</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="23">
         <v>5500</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="23">
         <f>(L8+N8)/2</f>
         <v>5400</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="23">
         <v>5300</v>
       </c>
-      <c r="O8" s="78" t="s">
+      <c r="O8" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="23">
         <v>2615.2800000000002</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="23">
         <v>2332.4</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="23">
         <v>1625.2</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="23">
         <v>918</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="23">
         <v>855.1</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="23">
         <v>792.2</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="23">
         <v>729.3</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="23">
         <v>666.4</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="23">
         <v>603.5</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="23">
         <v>540.59999999999991</v>
       </c>
-      <c r="O9" s="78" t="s">
+      <c r="O9" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="76"/>
-      <c r="C10" s="75" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="23">
         <f>((F10-G10)*2/5+F10)</f>
         <v>4629.6399999999994</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="23">
         <f>(F9+F11)/2</f>
         <v>4166.2</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="23">
         <f t="shared" ref="G10:N10" si="4">(G9+G11)/2</f>
         <v>3007.6</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="23">
         <f t="shared" si="4"/>
         <v>1849</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="23">
         <f t="shared" si="4"/>
         <v>1622.55</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="23">
         <f t="shared" si="4"/>
         <v>1396.1</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="23">
         <f t="shared" si="4"/>
         <v>1277.1500000000001</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="23">
         <f t="shared" si="4"/>
         <v>1158.2</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="23">
         <f t="shared" si="4"/>
         <v>1089.25</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="23">
         <f t="shared" si="4"/>
         <v>1020.3</v>
       </c>
-      <c r="O10" s="77" t="s">
+      <c r="O10" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="76"/>
-      <c r="C11" s="75" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="23">
         <v>6644</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="23">
         <v>6000</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="23">
         <v>4390</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="23">
         <v>2780</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="23">
         <v>2390</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="23">
         <v>2000</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="23">
         <v>1825</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="23">
         <v>1650</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="23">
         <v>1575</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="23">
         <v>1500</v>
       </c>
-      <c r="O11" s="78" t="s">
+      <c r="O11" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="23">
         <v>2514.6120000000001</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="23">
         <v>1965.3679999999999</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="23">
         <v>1217.6020000000001</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="23">
         <v>820.55759999999998</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="23">
         <v>741.14880000000005</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="23">
         <v>661.74</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="23">
         <v>582.33119999999997</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="23">
         <v>502.92239999999998</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="23">
         <v>423.5136</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="23">
         <v>344.10480000000001</v>
       </c>
-      <c r="O12" s="78" t="s">
+      <c r="O12" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="23">
         <v>2514.6120000000001</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="23">
         <v>2170.5070000000001</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="23">
         <v>1700.672</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="23">
         <v>1406.1980000000001</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="23">
         <v>1333.4059999999999</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="23">
         <v>1263.923</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="23">
         <v>1194.441</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="23">
         <v>1121.6489999999999</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="23">
         <v>1048.8579999999999</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="23">
         <v>976.06650000000002</v>
       </c>
-      <c r="O13" s="77" t="s">
+      <c r="O13" s="23" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="75" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="23">
         <v>2514.6120000000001</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="23">
         <v>2375.6469999999999</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="23">
         <v>2183.7420000000002</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="23">
         <v>1991.837</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="23">
         <v>1925.663</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="23">
         <v>1866.107</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="23">
         <v>1806.55</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="23">
         <v>1740.376</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="23">
         <v>1674.202</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="23">
         <v>1608.028</v>
       </c>
-      <c r="O14" s="78" t="s">
+      <c r="O14" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="E15" s="23"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="E17" s="23"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="63" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -12113,7 +12077,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="11" t="s">
         <v>279</v>
       </c>
@@ -12165,7 +12129,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="11" t="s">
         <v>279</v>
       </c>
@@ -12211,7 +12175,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="63" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -12259,7 +12223,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="11" t="s">
         <v>280</v>
       </c>
@@ -12311,7 +12275,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="11" t="s">
         <v>280</v>
       </c>
@@ -12357,7 +12321,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -12405,7 +12369,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="11" t="s">
         <v>281</v>
       </c>
@@ -12457,7 +12421,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="11" t="s">
         <v>281</v>
       </c>
@@ -12523,21 +12487,21 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C31" s="48" t="s">
@@ -12581,21 +12545,21 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
@@ -12644,7 +12608,7 @@
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>344</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -12689,7 +12653,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="55" t="s">
         <v>185</v>
       </c>
@@ -12732,7 +12696,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="55" t="s">
         <v>185</v>
       </c>
@@ -12775,7 +12739,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>344</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -12820,7 +12784,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="51" t="s">
         <v>296</v>
       </c>
@@ -12863,7 +12827,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="55" t="s">
         <v>296</v>
       </c>
@@ -12906,7 +12870,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="66" t="s">
         <v>344</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -12951,7 +12915,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="51" t="s">
         <v>352</v>
       </c>
@@ -12994,7 +12958,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="55" t="s">
         <v>353</v>
       </c>
@@ -13037,7 +13001,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="66" t="s">
         <v>344</v>
       </c>
       <c r="C12" s="55" t="s">
@@ -13080,7 +13044,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="51" t="s">
         <v>354</v>
       </c>
@@ -13121,7 +13085,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="55" t="s">
         <v>354</v>
       </c>
@@ -13162,7 +13126,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="54"/>
@@ -13179,7 +13143,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
@@ -13196,7 +13160,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
-      <c r="B17" s="65"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="54"/>
@@ -13213,7 +13177,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>355</v>
       </c>
       <c r="C18" s="59" t="s">
@@ -13258,7 +13222,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="59" t="s">
         <v>356</v>
       </c>
@@ -13301,7 +13265,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
-      <c r="B20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="59" t="s">
         <v>356</v>
       </c>
@@ -13344,7 +13308,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>358</v>
       </c>
       <c r="C21" s="59" t="s">
@@ -13389,7 +13353,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
-      <c r="B22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="59" t="s">
         <v>359</v>
       </c>
@@ -13432,7 +13396,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="59" t="s">
         <v>359</v>
       </c>
@@ -13475,7 +13439,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="66" t="s">
         <v>355</v>
       </c>
       <c r="C24" s="59" t="s">
@@ -13520,7 +13484,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="59" t="s">
         <v>360</v>
       </c>
@@ -13563,7 +13527,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="59" t="s">
         <v>360</v>
       </c>
@@ -13660,21 +13624,21 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
@@ -13736,8 +13700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73745FB5-3401-44C2-A1EB-13E01DC3B87E}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14095,7 +14059,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="62" t="s">
         <v>377</v>
       </c>
     </row>

--- a/1 LCOA/data.xlsx
+++ b/1 LCOA/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\1 LCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95191D3-1D5C-492E-9D73-AFFF131FAC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BE7D36-B95B-465E-81C1-A1BC66F9301D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="1650" windowWidth="16130" windowHeight="8820" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="50" r:id="rId1"/>
@@ -21,23 +21,25 @@
     <sheet name="Wind" sheetId="68" r:id="rId6"/>
     <sheet name="Cost" sheetId="65" r:id="rId7"/>
     <sheet name="Cost(1)" sheetId="74" state="hidden" r:id="rId8"/>
-    <sheet name="Exchange Rate" sheetId="2" r:id="rId9"/>
-    <sheet name="Province" sheetId="37" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="76" state="hidden" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="75" state="hidden" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="70" state="hidden" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="71" state="hidden" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="72" state="hidden" r:id="rId15"/>
-    <sheet name="Ammonia_Comparison" sheetId="8" r:id="rId16"/>
-    <sheet name="LCOE_20-50_comparison" sheetId="69" state="hidden" r:id="rId17"/>
+    <sheet name="Cost (2)" sheetId="77" r:id="rId9"/>
+    <sheet name="Exchange Rate" sheetId="2" r:id="rId10"/>
+    <sheet name="Province" sheetId="37" r:id="rId11"/>
+    <sheet name="Sheet7" sheetId="78" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="76" state="hidden" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="75" state="hidden" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="70" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="71" state="hidden" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="72" state="hidden" r:id="rId17"/>
+    <sheet name="Ammonia_Comparison" sheetId="8" r:id="rId18"/>
+    <sheet name="LCOE_20-50_comparison" sheetId="69" state="hidden" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Exchange Rate'!$J$2:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Province!$A$2:$I$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet1!$B$1:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet2!$B$1:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet3!$B$1:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet5!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Exchange Rate'!$J$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Province!$A$2:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet1!$B$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet2!$B$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet3!$B$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet5!$A$1:$B$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -121,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="420">
   <si>
     <t>Reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,15 +2130,109 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -2418,7 +2514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2613,6 +2709,8 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2900,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DC5FBB-3303-4F8E-8A54-F7FBBDCDA850}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3550,14 +3648,408 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73745FB5-3401-44C2-A1EB-13E01DC3B87E}">
+  <dimension ref="B2:I29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="B10:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="23.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>402</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.3613</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>444.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10.89</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>468.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12.130999999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10.1953</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>499.6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13.674000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10.019</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>545.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.62</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10.4175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>575.4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17.128</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10.2227</v>
+      </c>
+      <c r="I8" s="3">
+        <f>3125/12*44</f>
+        <v>11458.333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>521.9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.738</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.527000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20.730999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.9725000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>585.70000000000005</v>
+      </c>
+      <c r="D11" s="3">
+        <v>22.710999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.001100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>584.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24.495999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.3125</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.1067</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>567.29999999999995</v>
+      </c>
+      <c r="D13" s="3">
+        <v>26.399000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.1932000000000009</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8.2218999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.9974999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>576.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>28.359000000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.1427999999999994</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8.1651000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="D15" s="3">
+        <v>30.355999999999998</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.2284000000000006</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.9140999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="D16" s="3">
+        <v>32.435000000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.6423000000000005</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.3426</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>567.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>34.688000000000002</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.7517999999999994</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.6303000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24">
+        <v>603.1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>37.03</v>
+      </c>
+      <c r="E18" s="24">
+        <v>6.6173999999999999</v>
+      </c>
+      <c r="F18" s="24">
+        <v>7.8015999999999996</v>
+      </c>
+      <c r="G18" s="24">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H18" s="24">
+        <v>8.8215000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>607.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>39.233000000000004</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.8985000000000003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7.7254999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>596.20000000000005</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40.111999999999995</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.8975999999999997</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7.8754999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.4514999999999993</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7.6292999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44.801000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.7260999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="C24" s="62" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f>(234+137)*F18</f>
+        <v>2894.3935999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <f>10860*F18</f>
+        <v>84725.375999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>84725.376000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{101F9D7A-53A5-4B5B-909E-F2ACA22BC474}"/>
+    <hyperlink ref="C23" r:id="rId2" display="https://www.chemengonline.com/pci-home" xr:uid="{F551C81A-21FC-4972-8569-FCA683E14FD0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6D2A5-EE2E-4A55-8907-03679660A525}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4560,7 +5052,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66511F16-965C-45DF-B04C-05231B2E64DF}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10D86FD-A8C9-4A99-BA22-2125BF3C64E0}">
   <dimension ref="A2:B32"/>
   <sheetViews>
@@ -4829,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1FF10B-D39D-4CDE-9A9C-BE7BADC2ACDB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -5404,7 +6160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E9255B-3B64-4FBC-A215-544438B72345}">
   <dimension ref="B1:D30"/>
   <sheetViews>
@@ -5752,7 +6508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E844EE7F-534A-412C-82D2-D7C759A7777A}">
   <dimension ref="B1:D30"/>
   <sheetViews>
@@ -6100,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5518017-6628-47CB-9A0B-D0E6355003C2}">
   <dimension ref="B1:D30"/>
   <sheetViews>
@@ -6448,12 +7204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F525E76-E2FE-4B37-94D5-E3F167FF822A}">
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7541,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCE15F5-03C3-4204-975B-BA1B52CB3D46}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -8008,8 +8764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF3D424-23C3-401A-A40F-837C5207AA37}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8883,7 +9639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0368B972-5488-44D2-A179-452E21715DD5}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -10499,7 +11255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E41B4-9A59-4546-BA52-2A3B67B08096}">
   <dimension ref="A2:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -10939,8 +11695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B13B74-C1CB-4220-BAB3-71025CD99899}">
   <dimension ref="A2:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11380,7 +12136,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13697,395 +14453,801 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73745FB5-3401-44C2-A1EB-13E01DC3B87E}">
-  <dimension ref="B2:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2093E2-0B9A-447B-A1EB-5BC2C6A3B824}">
+  <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="3" width="23.08203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="23"/>
+    <col min="2" max="2" width="19.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="40" customWidth="1"/>
+    <col min="4" max="5" width="7.4140625" style="40" customWidth="1"/>
+    <col min="6" max="10" width="7.4140625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3">
-        <v>402</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.89</v>
-      </c>
-      <c r="F3" s="3">
-        <v>9.3613</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>444.2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.89</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3">
-        <v>468.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>12.130999999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10.1953</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3">
-        <v>499.6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13.674000000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10.019</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3">
-        <v>545.4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15.62</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10.4175</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <v>575.4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>17.128</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10.2227</v>
-      </c>
-      <c r="I8" s="3">
-        <f>3125/12*44</f>
-        <v>11458.333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3">
-        <v>521.9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>18.738</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9.527000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>550.79999999999995</v>
-      </c>
-      <c r="D10" s="3">
-        <v>20.730999999999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.7694999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8.9725000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
-        <v>585.70000000000005</v>
-      </c>
-      <c r="D11" s="3">
-        <v>22.710999999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.001100000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>584.6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>24.495999999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.3125</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.1067</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>567.29999999999995</v>
-      </c>
-      <c r="D13" s="3">
-        <v>26.399000000000001</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6.1932000000000009</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8.2218999999999998</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5.9974999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
-        <v>576.1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>28.359000000000002</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6.1427999999999994</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8.1651000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
-        <v>556.79999999999995</v>
-      </c>
-      <c r="D15" s="3">
-        <v>30.355999999999998</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6.2284000000000006</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.9140999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>541.70000000000005</v>
-      </c>
-      <c r="D16" s="3">
-        <v>32.435000000000002</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6.6423000000000005</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7.3426</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>567.5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>34.688000000000002</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6.7517999999999994</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7.6303000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="24">
-        <v>603.1</v>
-      </c>
-      <c r="D18" s="24">
-        <v>37.03</v>
-      </c>
-      <c r="E18" s="24">
-        <v>6.6173999999999999</v>
-      </c>
-      <c r="F18" s="24">
-        <v>7.8015999999999996</v>
-      </c>
-      <c r="G18" s="24">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="H18" s="24">
-        <v>8.8215000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3">
-        <v>607.5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>39.233000000000004</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6.8985000000000003</v>
-      </c>
-      <c r="F19" s="3">
-        <v>7.7254999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <v>596.20000000000005</v>
-      </c>
-      <c r="D20" s="3">
-        <v>40.111999999999995</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6.8975999999999997</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7.8754999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6.4514999999999993</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7.6292999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
-        <v>44.801000000000002</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6.7260999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="C24" s="62" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <f>(234+137)*F18</f>
-        <v>2894.3935999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <f>10860*F18</f>
-        <v>84725.375999999989</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>84725.376000000004</v>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+    </row>
+    <row r="2" spans="2:11" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="40">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="40">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="40">
+        <v>2030</v>
+      </c>
+      <c r="H2" s="40">
+        <v>2040</v>
+      </c>
+      <c r="I2" s="40">
+        <v>2050</v>
+      </c>
+      <c r="J2" s="40">
+        <v>2060</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="76">
+        <v>4200</v>
+      </c>
+      <c r="F3" s="76">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="76">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="76">
+        <v>2500</v>
+      </c>
+      <c r="I3" s="76">
+        <v>2200</v>
+      </c>
+      <c r="J3" s="76">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="63"/>
+      <c r="C4" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="76">
+        <v>4793.07</v>
+      </c>
+      <c r="F4" s="76">
+        <v>4535.75</v>
+      </c>
+      <c r="G4" s="76">
+        <v>3345.75</v>
+      </c>
+      <c r="H4" s="76">
+        <v>2719.7</v>
+      </c>
+      <c r="I4" s="76">
+        <v>2435.15</v>
+      </c>
+      <c r="J4" s="76">
+        <v>2293.75</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="63"/>
+      <c r="C5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="76">
+        <v>5386.1399999999994</v>
+      </c>
+      <c r="F5" s="76">
+        <v>5071.5</v>
+      </c>
+      <c r="G5" s="76">
+        <v>3691.5</v>
+      </c>
+      <c r="H5" s="76">
+        <v>2939.4</v>
+      </c>
+      <c r="I5" s="76">
+        <v>2670.3</v>
+      </c>
+      <c r="J5" s="76">
+        <v>2587.5</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="76">
+        <v>6499.8</v>
+      </c>
+      <c r="F6" s="76">
+        <v>6417</v>
+      </c>
+      <c r="G6" s="76">
+        <v>6003</v>
+      </c>
+      <c r="H6" s="76">
+        <v>5761.5</v>
+      </c>
+      <c r="I6" s="76">
+        <v>5520</v>
+      </c>
+      <c r="J6" s="76">
+        <v>5278.5</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="63"/>
+      <c r="C7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="76">
+        <v>6819.9</v>
+      </c>
+      <c r="F7" s="76">
+        <v>6708.5</v>
+      </c>
+      <c r="G7" s="76">
+        <v>6151.5</v>
+      </c>
+      <c r="H7" s="76">
+        <v>5805.75</v>
+      </c>
+      <c r="I7" s="76">
+        <v>5510</v>
+      </c>
+      <c r="J7" s="76">
+        <v>5289.25</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="63"/>
+      <c r="C8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="76">
+        <v>7140</v>
+      </c>
+      <c r="F8" s="76">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="76">
+        <v>6300</v>
+      </c>
+      <c r="H8" s="76">
+        <v>5850</v>
+      </c>
+      <c r="I8" s="76">
+        <v>5500</v>
+      </c>
+      <c r="J8" s="76">
+        <v>5300</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="76">
+        <v>2615.2800000000002</v>
+      </c>
+      <c r="F9" s="76">
+        <v>2332.4</v>
+      </c>
+      <c r="G9" s="76">
+        <v>918</v>
+      </c>
+      <c r="H9" s="76">
+        <v>792.2</v>
+      </c>
+      <c r="I9" s="76">
+        <v>666.4</v>
+      </c>
+      <c r="J9" s="76">
+        <v>540.59999999999991</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="76">
+        <v>4629.6399999999994</v>
+      </c>
+      <c r="F10" s="76">
+        <v>4166.2</v>
+      </c>
+      <c r="G10" s="76">
+        <v>1849</v>
+      </c>
+      <c r="H10" s="76">
+        <v>1396.1</v>
+      </c>
+      <c r="I10" s="76">
+        <v>1158.2</v>
+      </c>
+      <c r="J10" s="76">
+        <v>1020.3</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="76">
+        <v>6644</v>
+      </c>
+      <c r="F11" s="76">
+        <v>6000</v>
+      </c>
+      <c r="G11" s="76">
+        <v>2780</v>
+      </c>
+      <c r="H11" s="76">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="76">
+        <v>1650</v>
+      </c>
+      <c r="J11" s="76">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B12" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="76">
+        <v>2514.6120000000001</v>
+      </c>
+      <c r="F12" s="76">
+        <v>1965.3679999999999</v>
+      </c>
+      <c r="G12" s="76">
+        <v>820.55759999999998</v>
+      </c>
+      <c r="H12" s="76">
+        <v>661.74</v>
+      </c>
+      <c r="I12" s="76">
+        <v>502.92239999999998</v>
+      </c>
+      <c r="J12" s="76">
+        <v>344.10480000000001</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="76">
+        <v>2514.6120000000001</v>
+      </c>
+      <c r="F13" s="76">
+        <v>2170.5070000000001</v>
+      </c>
+      <c r="G13" s="76">
+        <v>1406.1980000000001</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1263.923</v>
+      </c>
+      <c r="I13" s="76">
+        <v>1121.6489999999999</v>
+      </c>
+      <c r="J13" s="76">
+        <v>976.06650000000002</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="76">
+        <v>2514.6120000000001</v>
+      </c>
+      <c r="F14" s="76">
+        <v>2375.6469999999999</v>
+      </c>
+      <c r="G14" s="76">
+        <v>1991.837</v>
+      </c>
+      <c r="H14" s="76">
+        <v>1866.107</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1740.376</v>
+      </c>
+      <c r="J14" s="76">
+        <v>1608.028</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B18" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="76">
+        <v>907.10065454035828</v>
+      </c>
+      <c r="F18" s="76">
+        <v>875.27256139859105</v>
+      </c>
+      <c r="G18" s="76">
+        <v>716.13209568975503</v>
+      </c>
+      <c r="H18" s="76">
+        <v>397.85116427208601</v>
+      </c>
+      <c r="I18" s="76">
+        <v>238.71069856325201</v>
+      </c>
+      <c r="J18" s="76">
+        <v>159.14046570882999</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="76">
+        <v>1448.1782379503973</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1352.6939585250957</v>
+      </c>
+      <c r="G19" s="76">
+        <v>875.27256139858753</v>
+      </c>
+      <c r="H19" s="76">
+        <v>477.42139712650351</v>
+      </c>
+      <c r="I19" s="76">
+        <v>318.28093141766902</v>
+      </c>
+      <c r="J19" s="76">
+        <v>238.71069856324951</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" s="63"/>
+      <c r="C20" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="76">
+        <v>1989.2558213604361</v>
+      </c>
+      <c r="F20" s="76">
+        <v>1830.1153556516001</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1034.41302710742</v>
+      </c>
+      <c r="H20" s="76">
+        <v>556.99162998092095</v>
+      </c>
+      <c r="I20" s="76">
+        <v>397.85116427208601</v>
+      </c>
+      <c r="J20" s="76">
+        <v>318.28093141766902</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="76">
+        <v>8.4703656726493364</v>
+      </c>
+      <c r="F21" s="76">
+        <v>8.1099245801961715</v>
+      </c>
+      <c r="G21" s="76">
+        <v>6.3077191179303496</v>
+      </c>
+      <c r="H21" s="76">
+        <v>4.5055136556645401</v>
+      </c>
+      <c r="I21" s="76">
+        <v>4.0549622900980902</v>
+      </c>
+      <c r="J21" s="76">
+        <v>3.60441092453163</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="63"/>
+      <c r="C22" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="76">
+        <v>11.173673866048047</v>
+      </c>
+      <c r="F22" s="76">
+        <v>10.813232773594885</v>
+      </c>
+      <c r="G22" s="76">
+        <v>9.0110273113290749</v>
+      </c>
+      <c r="H22" s="76">
+        <v>7.2088218490632654</v>
+      </c>
+      <c r="I22" s="76">
+        <v>6.9835461662800409</v>
+      </c>
+      <c r="J22" s="76">
+        <v>6.3077191179303549</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="63"/>
+      <c r="C23" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="76">
+        <v>13.876982059446759</v>
+      </c>
+      <c r="F23" s="76">
+        <v>13.516540966993599</v>
+      </c>
+      <c r="G23" s="76">
+        <v>11.714335504727799</v>
+      </c>
+      <c r="H23" s="76">
+        <v>9.9121300424619907</v>
+      </c>
+      <c r="I23" s="76">
+        <v>9.9121300424619907</v>
+      </c>
+      <c r="J23" s="76">
+        <v>9.0110273113290802</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B24" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="76">
+        <v>496.21799788340519</v>
+      </c>
+      <c r="F24" s="76">
+        <v>465.20454683122597</v>
+      </c>
+      <c r="G24" s="76">
+        <v>310.13729157032998</v>
+      </c>
+      <c r="H24" s="76">
+        <v>232.60296867774699</v>
+      </c>
+      <c r="I24" s="76">
+        <v>193.83580723145599</v>
+      </c>
+      <c r="J24" s="76">
+        <v>155.06864578516499</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="76">
+        <v>534.98599364425695</v>
+      </c>
+      <c r="F25" s="76">
+        <v>503.97240353965094</v>
+      </c>
+      <c r="G25" s="76">
+        <v>348.90445301662101</v>
+      </c>
+      <c r="H25" s="76">
+        <v>251.9865494008925</v>
+      </c>
+      <c r="I25" s="76">
+        <v>213.21938795460147</v>
+      </c>
+      <c r="J25" s="76">
+        <v>174.4522265083105</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="B26" s="63"/>
+      <c r="C26" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="76">
+        <v>573.75398940510877</v>
+      </c>
+      <c r="F26" s="76">
+        <v>542.74026024807597</v>
+      </c>
+      <c r="G26" s="76">
+        <v>387.67161446291198</v>
+      </c>
+      <c r="H26" s="76">
+        <v>271.37013012403798</v>
+      </c>
+      <c r="I26" s="76">
+        <v>232.60296867774699</v>
+      </c>
+      <c r="J26" s="76">
+        <v>193.83580723145599</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="40" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{101F9D7A-53A5-4B5B-909E-F2ACA22BC474}"/>
-    <hyperlink ref="C23" r:id="rId2" display="https://www.chemengonline.com/pci-home" xr:uid="{F551C81A-21FC-4972-8569-FCA683E14FD0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>